--- a/similarities/split_global/harmonic_similarity_timestamps_312.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_312.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000'), ('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000'), ('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:7', 'G', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
+          <t>('0:00:23.629455', '0:00:29.120975')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:24.560000')]</t>
+          <t>('0:00:14.900000', '0:00:20.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=14.9</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7'], ['G:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7'], ['Ab:maj6', 'Eb:7', 'Ab:maj6']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:21.840000', '0:00:27.650000'), ('0:00:02.870000', '0:00:04.800000')]</t>
+          <t>('0:01:03.200000', '0:01:13.120000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.970000', '0:00:03.650000'), ('0:00:25.580000', '0:00:27.910000')]</t>
+          <t>('0:00:00.600000', '0:00:11.320000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=21.84', 'https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=2.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=63.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=1.97', 'https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=25.58']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Eb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:12.446000', '0:00:16.277000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:00:59.292687', '0:01:14.118628')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=59.292687</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000'), ('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:04.860000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:12.720000'), ('0:00:00.600000', '0:00:09.940000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:22.200000')]</t>
+          <t>('0:00:15.730000', '0:00:17.850000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=6.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=13.72']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=15.73</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb', 'E:dim7/b3', 'Db/5']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab', 'A:dim7', 'Eb']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:34.104875')]</t>
+          <t>('0:00:12.852267', '0:00:15.522562')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:04')]</t>
+          <t>('0:03:28.740000', '0:03:31.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=12.852267</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=208.74</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:05.900000', '0:01:12.440000')]</t>
+          <t>('0:00:21.020000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:36.600000', '0:00:39')]</t>
+          <t>('0:00:51.641107', '0:00:57.139232')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=65.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=21.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:01:04.514625', '0:01:27.246961')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:31.840000', '0:01:43.940000')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:35', '0:00:39.820000')]</t>
+          <t>('0:01:23.100000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=91.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=35.0']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:06.040000', '0:01:08.540000')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:43.926916', '0:00:50.765192')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=43.926916']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:dim7']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:dim7']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:12.990000', '0:00:14.370000')]</t>
+          <t>('0:00:11.260000', '0:00:13.160000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.760000', '0:00:03.130000')]</t>
+          <t>('0:00:13.723015', '0:00:16.393310')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.99']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=13.723015</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:21.100000', '0:00:29.500000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:06.740000', '0:00:08.900000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=21.1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=6.74']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['C:maj', 'G:9', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E', 'B:9', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:00:58.280000', '0:01:02.600000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:33.711833', '0:00:45.368251')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=58.28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=33.711833</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:37.995918', '0:01:09.517005')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:01:45', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
